--- a/Desktop/Calculations.xlsx
+++ b/Desktop/Calculations.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rchellam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rchellam\Desktop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="8388" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="8388" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="127">
   <si>
     <t>Indira</t>
   </si>
@@ -301,13 +301,128 @@
   </si>
   <si>
     <t>Seer</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Crakers</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>Melam</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>Kasthuri</t>
+  </si>
+  <si>
+    <t>kosala kulamangalam</t>
+  </si>
+  <si>
+    <t>Narimedu Mama</t>
+  </si>
+  <si>
+    <t>Srinivasa Kannan</t>
+  </si>
+  <si>
+    <t>Kalamega Perumal</t>
+  </si>
+  <si>
+    <t>Rithish</t>
+  </si>
+  <si>
+    <t>Pratha</t>
+  </si>
+  <si>
+    <t>Padavathran</t>
+  </si>
+  <si>
+    <t>Pandi thatha</t>
+  </si>
+  <si>
+    <t>Mookayee</t>
+  </si>
+  <si>
+    <t>Kamatchi</t>
+  </si>
+  <si>
+    <t>Ice cream</t>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>Thambula Pai</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
+    <t>Decoration plates</t>
+  </si>
+  <si>
+    <t>Invitation Plates</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Maalai</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Coat Suite</t>
+  </si>
+  <si>
+    <t>Beautician</t>
+  </si>
+  <si>
+    <t>Poo</t>
+  </si>
+  <si>
+    <t>Chenda Melam</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>crackers</t>
+  </si>
+  <si>
+    <t>lightings</t>
+  </si>
+  <si>
+    <t>Vethalai Paakku</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,13 +478,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,88 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>200000</v>
-      </c>
-      <c r="C1">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>80000</v>
-      </c>
-      <c r="C2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>400000</v>
-      </c>
-      <c r="C3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>60000</v>
-      </c>
-      <c r="C4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>150000</v>
-      </c>
-      <c r="C5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>200000</v>
-      </c>
-      <c r="C6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,12 +1033,12 @@
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="8.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.88671875" style="3"/>
     <col min="11" max="11" width="10.21875" style="3" customWidth="1"/>
     <col min="12" max="16" width="8.88671875" style="3"/>
-    <col min="17" max="17" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="3"/>
@@ -1256,7 +1294,7 @@
         <v>1200</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R5" s="3">
         <v>1000</v>
@@ -1294,7 +1332,7 @@
         <v>1200</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" s="3">
         <v>1000</v>
@@ -1326,7 +1364,7 @@
         <v>1200</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R7" s="3">
         <v>1000</v>
@@ -1358,7 +1396,7 @@
         <v>1200</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="R8" s="3">
         <v>1000</v>
@@ -1389,6 +1427,12 @@
       <c r="H9" s="3">
         <v>1200</v>
       </c>
+      <c r="Q9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1541,6 +1585,12 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3000</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1596,8 +1646,8 @@
         <v>26</v>
       </c>
       <c r="R30" s="4">
-        <f>SUM(R1:R8)</f>
-        <v>8000</v>
+        <f>SUM(R1:R7)</f>
+        <v>7000</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>26</v>
@@ -1607,13 +1657,368 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="3">
         <f>SUM(B30,D30,F30,H30,J30,L30,N30,R30,T30)</f>
-        <v>230400</v>
+        <v>229400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O36" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O37" s="3">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O38" s="3">
+        <v>35900</v>
+      </c>
+      <c r="P38" s="3">
+        <v>20500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2">
+        <v>230000</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2">
+        <v>230000</v>
+      </c>
+      <c r="I1" s="2">
+        <v>170000</v>
+      </c>
+      <c r="K1" s="2">
+        <v>162000</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>110000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="2">
+        <v>45000</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>195000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2">
+        <v>315000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>500000</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2">
+        <v>60000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2">
+        <v>145000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>145000</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2">
+        <v>80000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2">
+        <v>60000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60000</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f>SUM(B1:B8)</f>
+        <v>1235000</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(H1:H8)</f>
+        <v>1245000</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SUM(I1:I8)</f>
+        <v>1100000</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S20" s="5">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -1623,168 +2028,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
-        <v>200000</v>
-      </c>
-      <c r="C1" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D1" s="2">
-        <v>550000</v>
-      </c>
-      <c r="E1" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
-        <v>80000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>400000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1400000</v>
-      </c>
-      <c r="B10" s="2">
-        <f xml:space="preserve"> SUM(B1:B8)</f>
-        <v>1120000</v>
-      </c>
-      <c r="C10" s="2">
-        <f xml:space="preserve"> SUM(C1:C8)</f>
-        <v>250000</v>
-      </c>
-      <c r="D10" s="2">
-        <f xml:space="preserve"> SUM(D1:D8)</f>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <f>A10-B10-C10-D10-E10</f>
-        <v>-520000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="5">
-        <v>315000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <f>SUM(B18:B25)</f>
-        <v>1235000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1793,46 +2076,318 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F1" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>800000</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="6">
         <v>50000</v>
       </c>
-      <c r="C1">
-        <v>1150000</v>
-      </c>
-      <c r="E1">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>450000</v>
+      <c r="F22" s="6">
+        <v>57000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
